--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_163.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_163.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,632 +488,662 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_93</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04481605351170569</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['C', 'C/7', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(117.68, 119.48)]</t>
+          <t>[['G:maj', 'G:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(33.0, 48.22)]</t>
+          <t>[('0:00:21.542879', '0:00:25.316122')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:07.580000', '0:00:14.560000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1880877742946708</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_222</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_78</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1060794044665012</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#'], ['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>[['D', 'D', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(21.14, 27.92), (10.36, 18.44)]</t>
+          <t>[['A', 'A', 'F#:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.8, 2.88), (14.0, 16.38)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:00.411247', '0:00:13.974784')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:22.761927', '0:00:31.759659')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_193</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_19</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1904761904761905</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['Ab', 'G:min', 'C:min', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(53.46, 63.98)]</t>
+          <t>[['Bb', 'A:min', 'D:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(24.64, 36.02)]</t>
+          <t>[('0:00:03', '0:00:07.043000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:40.784172', '0:00:46.623990')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09302325581395349</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'F', 'Bb']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A/3', 'D/7', 'G/3']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.265318)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(59.78, 64.972)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:45', '0:01:48.540000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3441176470588235</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'F#']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.303030303030303</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(117.54, 121.8)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(11.384, 18.318)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(154.76, 159.84)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:01:36.260000', '0:01:47.180000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:35.140000', '0:00:42.320000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3296703296703297</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(56.72, 58.88)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(105.425056, 115.003287)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:27', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:00.800000', '0:00:10.540000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_273</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1079545454545455</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C'], ['C', 'G:9', 'C']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:9', 'C:maj/G']]</t>
+          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(20.801, 27.165), (1.511, 14.477)]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(8.72, 10.48), (50.74, 54.74)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:12.094553', '0:00:24.840113')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:10.540000', '0:00:16.680000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C#:min', 'F#:7/A#', 'B:maj'], ['C#:maj', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(31.34, 36.62), (0.48, 8.48)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(35.46, 38.2), (243.44, 246.98)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.56, 25.14)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(2.86, 7.5)]</t>
+          <t>[('0:01:05.440000', '0:01:06.820000'), ('0:01:03.600000', '0:01:06.040000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.260000', '0:00:07.820000'), ('0:00:55.680000', '0:01:02.280000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:00:00.820000', '0:02:25.840000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.360000', '0:02:07.800000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_19</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02912087912087912</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:7', 'A:min7', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Bb:min7', 'Eb:7']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(31.93, 35.42)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.2, 2.43)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1092241092241092</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Db', 'Db', 'Db:7']]</t>
-        </is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj', 'F:7']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(56.02, 59.32)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(74.38, 88.5)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.09099264705882354</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'A/2', 'A/b3']]</t>
-        </is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'A']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(62.891179, 65.81034)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(46.365011, 53.946326)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
-        </is>
-      </c>
+          <t>[('0:00:16.380000', '0:01:35.260000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1589673913043478</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'E/4']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'C#:maj']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(48.277, 54.481)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(49.48, 52.18)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:26.980000', '0:01:51.200000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.421195652173913</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(245.42, 263.44)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(18.66, 21.84)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
